--- a/pred_ohlcv/54_21/2020-01-14 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 TMTG ohlcv.xlsx
@@ -2082,7 +2082,7 @@
         <v>922551.5349113495</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>961727.3399113496</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>961727.3399113496</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>830174.5859113496</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>906248.3809113497</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>873550.1449113496</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>873550.1449113496</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>988454.9539113496</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>873438.6599113496</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>758289.4249113497</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>629187.6239113497</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>571189.6949113497</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>659009.5309113497</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>428760.9079113497</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>313450.6849113497</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>328028.0469113497</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>376551.5179113497</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>188011.5919113497</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>303735.5729113497</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>419530.9979113497</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>553522.6879113497</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>437404.5979113497</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>553129.2899113498</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>668711.9109113498</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>437774.4639113498</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>462029.9649113498</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>410238.6609113498</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>489387.8699113498</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>704296.0839113499</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>819627.5749113499</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>847325.6899113499</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>617637.0279113499</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>502649.5909113499</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>617721.1809113498</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>502440.9599113498</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>548150.4699113498</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>441419.4099113498</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>556754.7519113498</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>325662.6139113498</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>441102.3119113498</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>482518.3959113496</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>482518.3959113496</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>597158.0349113496</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>582155.3309113496</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>637178.3299113496</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>711533.5299113495</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>711533.5299113495</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>504033.6229113495</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>497904.5289113495</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>451325.2569113497</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1130986.63508865</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1211748.90208865</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1204172.35108865</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1187599.91208865</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1166285.70308865</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1159126.43208865</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1159126.43208865</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1194281.56208865</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1231996.80108865</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1205789.63908865</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1214455.85408865</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1225269.32008865</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1209510.95308865</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1228922.63008865</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1091279.54208865</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1058771.01308865</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1019733.76408865</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1020365.46808865</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1012474.58008865</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1004114.87808865</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1004114.87808865</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1004114.87808865</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1007441.15808865</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1002751.28608865</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1008784.01508865</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1030597.29508865</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1015752.87108865</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-11771627.87923004</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-11286838.70123005</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-11286838.70123005</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-10916768.39461654</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-11103692.53061654</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-11103692.53061654</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-15622317.31311654</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-15712485.80811654</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-15847698.02411654</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-15847698.02411654</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-15607172.90711654</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-15659047.83711654</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-15324089.91261654</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-17242365.33233514</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-17242365.33233514</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-17208673.69033514</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-16960387.45503514</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-17215866.50903514</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-17215866.50903514</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-17739380.50903514</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-17820424.66403514</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-20439285.39373514</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-20470753.14873514</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-20874934.51773514</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-20606824.66573514</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-20470640.36573514</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-20925698.48673514</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-20925698.48673514</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-20460082.22273514</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-20448093.85673514</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-20409314.74773514</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-20409314.74773514</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-20078965.98293513</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-20163022.33693513</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-19923121.05763514</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-19897007.83943514</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-19456137.46833514</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-19840416.31313514</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-19992586.45013514</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-19900228.71013514</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-19824620.88913514</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-19824620.88913514</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-19803017.99213514</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-19857959.52913514</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-19857959.52913514</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-19583042.64313514</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-19171747.80363514</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-19297192.51763514</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-19387633.83263515</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-19187373.35363515</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-20304057.41563515</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-20258028.27263515</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-20164727.47563515</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-20419819.35363515</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-20123436.58863515</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-20103336.82663515</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-19939580.92563515</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-19790034.47663515</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-19995296.41563515</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-18918702.23015343</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-19628724.63565343</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-19807567.79965343</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-19660949.84565343</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-20085519.92675343</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-20085519.92675343</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-19797284.13375343</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-20837726.11825342</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-20378442.56725343</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-20284256.06025343</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-22608697.44875344</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-22909906.39975343</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-22908227.30655444</v>
       </c>
       <c r="H877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-22888764.48055444</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-22747601.71755444</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-22814322.16955444</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-22702560.79955444</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-22506426.46585444</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-22478655.92085444</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-20588257.90593806</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-20551427.33693806</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-20801427.33693806</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-20692873.35483807</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-20556346.97631033</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-20581377.40331033</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-20018455.97683809</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-16327833.3822381</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-15911926.9249381</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-16847321.2268381</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-16775209.4098381</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-16948191.1699381</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-16998193.5342381</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-16998193.5342381</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-16911838.3778381</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-16911838.3778381</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-16931345.6378381</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-16993732.0129381</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-16993732.0129381</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-16484222.68072625</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-16408953.07172625</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-16408953.07172625</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-16052982.63852625</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-16064735.05552625</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-16045434.25652625</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-16121027.71132625</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-16431027.71132625</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-16431027.71132625</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-16510610.26922625</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-16705738.96412625</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-16672982.56612625</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-16628944.54712625</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-16710825.99112625</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-16696579.39712625</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-16726776.26512625</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-16673793.24412625</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 TMTG ohlcv.xlsx
@@ -2082,7 +2082,7 @@
         <v>922551.5349113495</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>961727.3399113496</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>961727.3399113496</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>830174.5859113496</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>906248.3809113497</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>873550.1449113496</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>873550.1449113496</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>988454.9539113496</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>873438.6599113496</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>758289.4249113497</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>629187.6239113497</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>571189.6949113497</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>659009.5309113497</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>428760.9079113497</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>313450.6849113497</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>328028.0469113497</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>376551.5179113497</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>188011.5919113497</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>303735.5729113497</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>419530.9979113497</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>553522.6879113497</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>437404.5979113497</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>553129.2899113498</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>668711.9109113498</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>437774.4639113498</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>462029.9649113498</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>410238.6609113498</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>489387.8699113498</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>704296.0839113499</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>819627.5749113499</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>847325.6899113499</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>617637.0279113499</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>502649.5909113499</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>617721.1809113498</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>502440.9599113498</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>548150.4699113498</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>441419.4099113498</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>556754.7519113498</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>325662.6139113498</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>441102.3119113498</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1130986.63508865</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1211748.90208865</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1204172.35108865</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1187599.91208865</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1166285.70308865</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1159126.43208865</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1159126.43208865</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1194281.56208865</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1231996.80108865</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1205789.63908865</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1214455.85408865</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1225269.32008865</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1209510.95308865</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1228922.63008865</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1091279.54208865</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1058771.01308865</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1019733.76408865</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1020365.46808865</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1012474.58008865</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1004114.87808865</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1004114.87808865</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1004114.87808865</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1007441.15808865</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1002751.28608865</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1008784.01508865</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1030597.29508865</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1015752.87108865</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-11286838.70123005</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-10916768.39461654</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-11103692.53061654</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-11103692.53061654</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-15607172.90711654</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-15497146.98161654</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-17208673.69033514</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-20059586.26423514</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-19705865.19843514</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-19978074.76243514</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-20014404.36143514</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-19759997.19143514</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-20253402.20543514</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-20683556.31243514</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-20205397.79343514</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-20529218.42173514</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-20220178.67573514</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-20874934.51773514</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-20078965.98293513</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-20035117.75693513</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-20354933.37793513</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-20168166.79193513</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-20147616.04093514</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-20194596.51193514</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-20194596.51193514</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-20074103.26293514</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-20004302.42103514</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-19925445.32363514</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-19861701.81123514</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-19663475.70673514</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-19804475.64273514</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-19045214.55173514</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-19146012.47123514</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-19146012.47123514</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-19146012.47123514</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-19575898.41533514</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-19635415.55333514</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-19708101.97633514</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-19527781.48933514</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-19636713.87633514</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-19641037.02833514</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-19538115.67933514</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-19456137.46833514</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-19553798.99933514</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-19880446.47213514</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-19880446.47213514</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-19880446.47213514</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-19840416.31313514</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-19992586.45013514</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-19889756.44713514</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-19900228.71013514</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-19900228.71013514</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-19900228.71013514</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-19824620.88913514</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-19824620.88913514</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-19803017.99213514</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-19857959.52913514</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-19857959.52913514</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-19583042.64313514</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-19171747.80363514</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-19171747.80363514</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-19297192.51763514</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-19387633.83263515</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-19542493.08663515</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-19122578.88663515</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-19141602.45163515</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-19187373.35363515</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-19256254.83563515</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-19256254.83563515</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-19375585.52863515</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-19367363.81263515</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-19478383.72563515</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-19579787.61263515</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-19455689.92863515</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-19922922.38963515</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-20304057.41563515</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-20258028.27263515</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-20164727.47563515</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-20419819.35363515</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-20123436.58863515</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-20103336.82663515</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-19939580.92563515</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-19790034.47663515</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-19995296.41563515</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-18918702.23015343</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-19725394.70705343</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-19628724.63565343</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-19807567.79965343</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-19660949.84565343</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-20085519.92675343</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-20085519.92675343</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-19797284.13375343</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-20837726.11825342</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-20378442.56725343</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-20284256.06025343</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-22607815.58375343</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-22146028.60775343</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-22146028.60775343</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-22608841.02875343</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-22458493.44175344</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-22678190.45375343</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-22909906.39975343</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-22908227.30655444</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-23121518.49655444</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-23121518.49655444</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-23179332.87855444</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-23281480.71555444</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-23283404.23655444</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-23209709.12555444</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-23022376.91755444</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-23025294.62155444</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-22402823.09845444</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-22302896.73345444</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-22093516.53945444</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-22033998.50975444</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-20588257.90593806</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-20551427.33693806</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-20801427.33693806</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-20692873.35483807</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-20556346.97631033</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-20581377.40331033</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-20581377.40331033</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-20391608.86613807</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-20307887.78163807</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-20362559.30423807</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-20234894.16723807</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-20053674.03674031</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-20018455.97683809</v>
       </c>
       <c r="H986">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-17166700.8658381</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-16892376.7538381</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-16892376.7538381</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-16622134.6956381</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-16327833.3822381</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-16327833.3822381</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-15915955.3349381</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-15911926.9249381</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-16847321.2268381</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-16775209.4098381</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-16948191.1699381</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-16998193.5342381</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-16998193.5342381</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-16911838.3778381</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-16911838.3778381</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-16931345.6378381</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-16993732.0129381</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-16993732.0129381</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-16431975.79272625</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-16484222.68072625</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-16408953.07172625</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-16408953.07172625</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-16052982.63852625</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-16064735.05552625</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-16045434.25652625</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-16121027.71132625</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-16431027.71132625</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-16855120.26853715</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-16908650.44299295</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-16908650.44299295</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-16908650.44299295</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-16908650.44299295</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-16973438.19999295</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
